--- a/Team-Data/2014-15/2-5-2014-15.xlsx
+++ b/Team-Data/2014-15/2-5-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
         <v>5</v>
@@ -777,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -819,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -956,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
@@ -989,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
@@ -998,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1132,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
@@ -1147,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1180,7 +1247,7 @@
         <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.449</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1239,58 +1306,58 @@
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.303</v>
+        <v>0.305</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R5" t="n">
         <v>10.3</v>
       </c>
       <c r="S5" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W5" t="n">
         <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1308,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1323,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>21</v>
@@ -1338,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1350,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1359,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1514,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.453</v>
@@ -1603,28 +1670,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T7" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
@@ -1639,43 +1706,43 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>9</v>
@@ -1687,22 +1754,22 @@
         <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
         <v>14</v>
@@ -1723,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>51</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.647</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,40 +1843,40 @@
         <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
         <v>12.3</v>
@@ -1818,13 +1885,13 @@
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA8" t="n">
         <v>21.9</v>
@@ -1833,19 +1900,19 @@
         <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1854,34 +1921,34 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1896,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>20</v>
@@ -2033,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2051,16 +2118,16 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
         <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2075,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2218,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2233,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2251,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,10 +2327,10 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY10" t="n">
         <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>7</v>
@@ -2427,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J12" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,34 +2580,34 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
@@ -2549,25 +2616,25 @@
         <v>4.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
@@ -2597,19 +2664,19 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
         <v>14</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC12" t="n">
         <v>8</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2755,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2776,10 +2843,10 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="n">
         <v>24</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>25</v>
@@ -2815,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.66</v>
+        <v>0.673</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,31 +2935,31 @@
         <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="M14" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P14" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R14" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S14" t="n">
         <v>32.4</v>
@@ -2910,34 +2977,34 @@
         <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
         <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2958,16 +3025,16 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
         <v>5</v>
       </c>
-      <c r="AO14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.271</v>
+        <v>0.265</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N15" t="n">
         <v>0.347</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,10 +3189,10 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3134,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -3143,25 +3210,25 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>7</v>
@@ -3313,7 +3380,7 @@
         <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3325,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
         <v>11</v>
@@ -3334,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>12</v>
@@ -3346,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3367,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
@@ -3537,19 +3604,19 @@
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,10 +3732,10 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3701,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3722,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,10 +3917,10 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3874,10 +3941,10 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3892,7 +3959,7 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
         <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.521</v>
+        <v>0.531</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>6.6</v>
@@ -3972,61 +4039,61 @@
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AA20" t="n">
         <v>18.9</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -4041,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4056,37 +4123,37 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4259,13 +4326,13 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>1.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>16</v>
@@ -4396,13 +4463,13 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
@@ -4411,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>27</v>
@@ -4426,7 +4493,7 @@
         <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4450,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.294</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.362</v>
@@ -4524,46 +4591,46 @@
         <v>14.4</v>
       </c>
       <c r="P23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,16 +4645,16 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4605,31 +4672,31 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>20</v>
@@ -4638,7 +4705,7 @@
         <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.549</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
         <v>86.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M25" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O25" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
@@ -4921,28 +4988,28 @@
         <v>22.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.3</v>
+        <v>106.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4951,19 +5018,19 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
@@ -4972,40 +5039,40 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.68</v>
+        <v>0.673</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,7 +5119,7 @@
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K26" t="n">
         <v>0.444</v>
@@ -5061,28 +5128,28 @@
         <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O26" t="n">
         <v>15.6</v>
       </c>
       <c r="P26" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
         <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="T26" t="n">
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="U26" t="n">
         <v>22.3</v>
@@ -5097,25 +5164,25 @@
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5130,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5148,22 +5215,22 @@
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5175,7 +5242,7 @@
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>8</v>
@@ -5184,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -5216,67 +5283,67 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.327</v>
+        <v>0.332</v>
       </c>
       <c r="O27" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="P27" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.782</v>
       </c>
       <c r="R27" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T27" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
         <v>6</v>
@@ -5285,25 +5352,25 @@
         <v>21.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.8</v>
+        <v>-3.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -5315,16 +5382,16 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.625</v>
+        <v>0.633</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
@@ -5416,49 +5483,49 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5473,16 +5540,16 @@
         <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5497,25 +5564,25 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN28" t="n">
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
@@ -5545,13 +5612,13 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>4.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
         <v>20</v>
@@ -5727,7 +5794,7 @@
         <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5873,13 +5940,13 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5900,13 +5967,13 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>14</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>0.608</v>
+        <v>0.62</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="N31" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O31" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q31" t="n">
         <v>0.742</v>
@@ -5989,40 +6056,40 @@
         <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
         <v>24.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
@@ -6034,34 +6101,34 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>23</v>
@@ -6070,34 +6137,34 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-5-2014-15</t>
+          <t>2015-02-05</t>
         </is>
       </c>
     </row>
